--- a/summary_data/gftpF_summary.xlsx
+++ b/summary_data/gftpF_summary.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isfiligoi/github/tnrp-net-tests/summary_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{203309F0-9EEC-E949-8CB6-0F8520D5E43B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3491073F-AC34-FC49-BDAA-8F0D19FAFD68}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9280" yWindow="660" windowWidth="28040" windowHeight="17440" xr2:uid="{F871B44F-434F-FB4B-AC1F-99327B90C475}"/>
+    <workbookView xWindow="5560" yWindow="660" windowWidth="28040" windowHeight="17440" xr2:uid="{F871B44F-434F-FB4B-AC1F-99327B90C475}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
-    <t>GridFTP tests</t>
-  </si>
-  <si>
     <t>Server</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>In Gbps, higher is better</t>
+  </si>
+  <si>
+    <t>GridFTP tests - fast with callback</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,63 +454,63 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>91.2</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>19.2</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>11.9</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -684,7 +684,7 @@
         <v>1.0964912280701753</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:N15" si="2">100/D6</f>
+        <f t="shared" ref="D15:L15" si="2">100/D6</f>
         <v>1.1325028312570782</v>
       </c>
       <c r="E15" s="2">
@@ -758,7 +758,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
-        <f t="shared" ref="C17:N17" si="4">100/F8</f>
+        <f t="shared" ref="F17:N17" si="4">100/F8</f>
         <v>8.4033613445378155</v>
       </c>
       <c r="G17" s="2">

--- a/summary_data/gftpF_summary.xlsx
+++ b/summary_data/gftpF_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isfiligoi/github/tnrp-net-tests/summary_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3491073F-AC34-FC49-BDAA-8F0D19FAFD68}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139AB321-699F-AB47-889C-FF1BCD28EB6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="660" windowWidth="28040" windowHeight="17440" xr2:uid="{F871B44F-434F-FB4B-AC1F-99327B90C475}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,7 +548,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="F7">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="M7">
         <v>20.5</v>
@@ -598,6 +598,9 @@
       </c>
       <c r="D9">
         <v>20.399999999999999</v>
+      </c>
+      <c r="F9">
+        <v>18.399999999999999</v>
       </c>
       <c r="L9">
         <v>7.4</v>
@@ -732,7 +735,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2">
         <f t="shared" si="3"/>
-        <v>13.157894736842106</v>
+        <v>14.084507042253522</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -758,7 +761,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
-        <f t="shared" ref="F17:N17" si="4">100/F8</f>
+        <f t="shared" ref="F17:N18" si="4">100/F8</f>
         <v>8.4033613445378155</v>
       </c>
       <c r="G17" s="2">
@@ -808,7 +811,10 @@
         <v>4.9019607843137258</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <f t="shared" si="4"/>
+        <v>5.4347826086956523</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>

--- a/summary_data/gftpF_summary.xlsx
+++ b/summary_data/gftpF_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isfiligoi/github/tnrp-net-tests/summary_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139AB321-699F-AB47-889C-FF1BCD28EB6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2CB364-1CCD-744A-852F-F407C84BD9E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="660" windowWidth="28040" windowHeight="17440" xr2:uid="{F871B44F-434F-FB4B-AC1F-99327B90C475}"/>
+    <workbookView xWindow="100" yWindow="-21900" windowWidth="22920" windowHeight="17440" xr2:uid="{F871B44F-434F-FB4B-AC1F-99327B90C475}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Server</t>
   </si>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AE2A42-D91B-564A-AB68-339151ECBD6D}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,326 +510,440 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>91.2</v>
-      </c>
-      <c r="D6">
-        <v>88.3</v>
-      </c>
-      <c r="E6">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="F6">
-        <v>9.5</v>
-      </c>
-      <c r="G6">
-        <v>9.1</v>
-      </c>
-      <c r="H6">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="J6">
-        <v>87.9</v>
-      </c>
-      <c r="L6">
-        <v>11.9</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
+        <v>27.4</v>
+      </c>
+      <c r="N6" s="1">
+        <v>27.1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>19.2</v>
-      </c>
-      <c r="D7">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="F7">
-        <v>7.1</v>
-      </c>
-      <c r="M7">
-        <v>20.5</v>
-      </c>
-      <c r="N7">
-        <v>21.5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>91.2</v>
+      </c>
+      <c r="D8">
+        <v>88.3</v>
+      </c>
+      <c r="E8">
+        <v>17.899999999999999</v>
       </c>
       <c r="F8">
+        <v>9.5</v>
+      </c>
+      <c r="G8">
+        <v>9.1</v>
+      </c>
+      <c r="H8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J8">
+        <v>87.9</v>
+      </c>
+      <c r="L8">
         <v>11.9</v>
-      </c>
-      <c r="G8">
-        <v>11.3</v>
-      </c>
-      <c r="H8">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I8">
-        <v>7.7</v>
-      </c>
-      <c r="J8">
-        <v>12.9</v>
-      </c>
-      <c r="K8">
-        <v>9</v>
-      </c>
-      <c r="L8">
-        <v>10.8</v>
-      </c>
-      <c r="M8">
-        <v>18.8</v>
-      </c>
-      <c r="N8">
-        <v>43.5</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>19.2</v>
+      </c>
+      <c r="D9">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F9">
+        <v>7.1</v>
+      </c>
+      <c r="M9">
+        <v>20.5</v>
+      </c>
+      <c r="N9">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>11.9</v>
+      </c>
+      <c r="G10">
+        <v>11.3</v>
+      </c>
+      <c r="H10">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I10">
+        <v>7.7</v>
+      </c>
+      <c r="J10">
+        <v>12.9</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>10.8</v>
+      </c>
+      <c r="M10">
+        <v>18.8</v>
+      </c>
+      <c r="N10">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>25</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>20.399999999999999</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>18.399999999999999</v>
       </c>
-      <c r="L9">
+      <c r="L11">
         <v>7.4</v>
       </c>
-      <c r="M9">
+      <c r="M11">
         <v>20</v>
       </c>
-      <c r="N9">
+      <c r="N11">
         <v>21.7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" t="str">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" t="str">
         <f>B4</f>
         <v>Server</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
         <f>A5</f>
         <v>Client</v>
       </c>
-      <c r="C14" t="str">
-        <f t="shared" ref="C14:N14" si="0">C5</f>
+      <c r="C16" t="str">
+        <f t="shared" ref="C16:N16" si="0">C5</f>
         <v>AWS EU W1</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>AWS EU C1</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>Amsterdam</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v>AWS US E1</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v>Chicago</v>
       </c>
-      <c r="H14" t="str">
+      <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>Kansas</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I16" t="str">
         <f t="shared" si="0"/>
         <v>San Diego</v>
       </c>
-      <c r="J14" t="str">
+      <c r="J16" t="str">
         <f t="shared" si="0"/>
         <v>GCP US W1</v>
       </c>
-      <c r="K14" t="str">
+      <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>Azure US W1</v>
       </c>
-      <c r="L14" t="str">
+      <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v>AWS US W2</v>
       </c>
-      <c r="M14" t="str">
+      <c r="M16" t="str">
         <f t="shared" si="0"/>
         <v>AWS Korea</v>
       </c>
-      <c r="N14" t="str">
+      <c r="N16" t="str">
         <f t="shared" si="0"/>
         <v>AWS Australia</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" t="str">
-        <f t="shared" ref="B15:B18" si="1">B6</f>
-        <v>NewYork</v>
-      </c>
-      <c r="C15" s="2">
-        <f>100/C6</f>
-        <v>1.0964912280701753</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" ref="D15:L15" si="2">100/D6</f>
-        <v>1.1325028312570782</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="2"/>
-        <v>5.5865921787709505</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="2"/>
-        <v>10.526315789473685</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="2"/>
-        <v>10.989010989010989</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="2"/>
-        <v>11.494252873563219</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2">
-        <f t="shared" si="2"/>
-        <v>1.1376564277588168</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2">
-        <f t="shared" si="2"/>
-        <v>8.4033613445378155</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" t="str">
-        <f t="shared" si="1"/>
-        <v>AWS US E1</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" ref="C16:N16" si="3">100/C7</f>
-        <v>5.2083333333333339</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="3"/>
-        <v>5.2356020942408374</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
-        <f t="shared" si="3"/>
-        <v>14.084507042253522</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2">
-        <f t="shared" si="3"/>
-        <v>4.8780487804878048</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="3"/>
-        <v>4.6511627906976747</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" t="str">
+        <f>B6</f>
+        <v>AWS EU C1</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:D17" si="1">100/C6</f>
+        <v>5.7471264367816097</v>
+      </c>
+      <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>San Diego</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+        <v>13.333333333333334</v>
+      </c>
       <c r="F17" s="2">
-        <f t="shared" ref="F17:N18" si="4">100/F8</f>
-        <v>8.4033613445378155</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="4"/>
-        <v>8.8495575221238933</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="4"/>
-        <v>12.048192771084336</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="4"/>
-        <v>12.987012987012987</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="4"/>
-        <v>7.7519379844961236</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="4"/>
-        <v>11.111111111111111</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="4"/>
-        <v>9.2592592592592595</v>
+        <f>100/F6</f>
+        <v>5.1020408163265305</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="4"/>
-        <v>5.3191489361702127</v>
+        <f>100/M6</f>
+        <v>3.6496350364963503</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="4"/>
-        <v>2.2988505747126435</v>
+        <f>100/N6</f>
+        <v>3.6900369003690034</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B18:B22" si="2">B7</f>
+        <v>Amsterdam</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:L21" si="3">100/C7</f>
+        <v>9.1743119266055047</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="3"/>
+        <v>10.526315789473685</v>
+      </c>
+      <c r="F18" s="2">
+        <f>100/F7</f>
+        <v>7.8125</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="3"/>
+        <v>7.8740157480314963</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" ref="I18" si="4">100/I7</f>
+        <v>7.9365079365079367</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" t="str">
+        <f t="shared" si="2"/>
+        <v>NewYork</v>
+      </c>
+      <c r="C19" s="2">
+        <f>100/C8</f>
+        <v>1.0964912280701753</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1325028312570782</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="3"/>
+        <v>5.5865921787709505</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="3"/>
+        <v>10.526315789473685</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="3"/>
+        <v>10.989010989010989</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="3"/>
+        <v>11.494252873563219</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1376564277588168</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2">
+        <f t="shared" si="3"/>
+        <v>8.4033613445378155</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" t="str">
+        <f t="shared" si="2"/>
+        <v>AWS US E1</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" ref="C20:N20" si="5">100/C9</f>
+        <v>5.2083333333333339</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="5"/>
+        <v>5.2356020942408374</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <f t="shared" si="5"/>
+        <v>14.084507042253522</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2">
+        <f t="shared" si="5"/>
+        <v>4.8780487804878048</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="5"/>
+        <v>4.6511627906976747</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" t="str">
+        <f t="shared" si="2"/>
+        <v>San Diego</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <f t="shared" si="3"/>
+        <v>6.25</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" ref="F21:N22" si="6">100/F10</f>
+        <v>8.4033613445378155</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="6"/>
+        <v>8.8495575221238933</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="6"/>
+        <v>12.048192771084336</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="6"/>
+        <v>12.987012987012987</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="6"/>
+        <v>7.7519379844961236</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="6"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="6"/>
+        <v>9.2592592592592595</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="6"/>
+        <v>5.3191489361702127</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="6"/>
+        <v>2.2988505747126435</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" t="str">
+        <f t="shared" si="2"/>
         <v>AWS US W2</v>
       </c>
-      <c r="C18" s="2">
-        <f t="shared" ref="C18:N18" si="5">100/C9</f>
+      <c r="C22" s="2">
+        <f t="shared" ref="C22:N22" si="7">100/C11</f>
         <v>4</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="5"/>
+      <c r="D22" s="2">
+        <f t="shared" si="7"/>
         <v>4.9019607843137258</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2">
-        <f t="shared" si="4"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <f t="shared" si="6"/>
         <v>5.4347826086956523</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2">
-        <f t="shared" si="5"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2">
+        <f t="shared" si="7"/>
         <v>13.513513513513512</v>
       </c>
-      <c r="M18" s="2">
-        <f t="shared" si="5"/>
+      <c r="M22" s="2">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="N18" s="2">
-        <f t="shared" si="5"/>
+      <c r="N22" s="2">
+        <f t="shared" si="7"/>
         <v>4.6082949308755765</v>
       </c>
     </row>

--- a/summary_data/gftpF_summary.xlsx
+++ b/summary_data/gftpF_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isfiligoi/github/tnrp-net-tests/summary_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2CB364-1CCD-744A-852F-F407C84BD9E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730E258B-36D8-3141-8455-F3DD9BC06CC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="-21900" windowWidth="22920" windowHeight="17440" xr2:uid="{F871B44F-434F-FB4B-AC1F-99327B90C475}"/>
+    <workbookView xWindow="840" yWindow="-25400" windowWidth="22920" windowHeight="17440" xr2:uid="{F871B44F-434F-FB4B-AC1F-99327B90C475}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Server</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>GridFTP tests - fast with callback</t>
+  </si>
+  <si>
+    <t>Korea</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AE2A42-D91B-564A-AB68-339151ECBD6D}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,22 +455,22 @@
     <col min="11" max="11" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -502,13 +505,16 @@
         <v>7</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -528,14 +534,15 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
         <v>27.4</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>27.1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -559,10 +566,13 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1">
+        <v>19.100000000000001</v>
+      </c>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -590,8 +600,11 @@
       <c r="L8">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -604,14 +617,14 @@
       <c r="F9">
         <v>7.1</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>20.5</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>21.5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -640,13 +653,16 @@
         <v>10.8</v>
       </c>
       <c r="M10">
+        <v>14.3</v>
+      </c>
+      <c r="N10">
         <v>18.8</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>43.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -662,31 +678,31 @@
       <c r="L11">
         <v>7.4</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>20</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>21.7</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" t="str">
         <f>B4</f>
         <v>Server</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>A5</f>
         <v>Client</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" ref="C16:N16" si="0">C5</f>
+        <f t="shared" ref="C16:O16" si="0">C5</f>
         <v>AWS EU W1</v>
       </c>
       <c r="D16" t="str">
@@ -727,14 +743,18 @@
       </c>
       <c r="M16" t="str">
         <f t="shared" si="0"/>
+        <v>Korea</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
         <v>AWS Korea</v>
       </c>
-      <c r="N16" t="str">
+      <c r="O16" t="str">
         <f t="shared" si="0"/>
         <v>AWS Australia</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" t="str">
         <f>B6</f>
         <v>AWS EU C1</v>
@@ -751,22 +771,22 @@
         <f>100/F6</f>
         <v>5.1020408163265305</v>
       </c>
-      <c r="M17" s="2">
-        <f>100/M6</f>
-        <v>3.6496350364963503</v>
-      </c>
       <c r="N17" s="2">
         <f>100/N6</f>
+        <v>3.6496350364963503</v>
+      </c>
+      <c r="O17" s="2">
+        <f>100/O6</f>
         <v>3.6900369003690034</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" t="str">
         <f t="shared" ref="B18:B22" si="2">B7</f>
         <v>Amsterdam</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18:L21" si="3">100/C7</f>
+        <f t="shared" ref="C18:M21" si="3">100/C7</f>
         <v>9.1743119266055047</v>
       </c>
       <c r="D18" s="2">
@@ -785,10 +805,14 @@
         <f t="shared" ref="I18" si="4">100/I7</f>
         <v>7.9365079365079367</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" s="2">
+        <f t="shared" si="3"/>
+        <v>5.2356020942408374</v>
+      </c>
       <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
         <f t="shared" si="2"/>
         <v>NewYork</v>
@@ -827,16 +851,20 @@
         <f t="shared" si="3"/>
         <v>8.4033613445378155</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" s="2">
+        <f t="shared" si="3"/>
+        <v>6.7567567567567561</v>
+      </c>
       <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" t="str">
         <f t="shared" si="2"/>
         <v>AWS US E1</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" ref="C20:N20" si="5">100/C9</f>
+        <f t="shared" ref="C20:O20" si="5">100/C9</f>
         <v>5.2083333333333339</v>
       </c>
       <c r="D20" s="2">
@@ -854,16 +882,17 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2">
+      <c r="M20" s="2"/>
+      <c r="N20" s="2">
         <f t="shared" si="5"/>
         <v>4.8780487804878048</v>
       </c>
-      <c r="N20" s="2">
+      <c r="O20" s="2">
         <f t="shared" si="5"/>
         <v>4.6511627906976747</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" t="str">
         <f t="shared" si="2"/>
         <v>San Diego</v>
@@ -875,7 +904,7 @@
         <v>6.25</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" ref="F21:N22" si="6">100/F10</f>
+        <f t="shared" ref="F21:O22" si="6">100/F10</f>
         <v>8.4033613445378155</v>
       </c>
       <c r="G21" s="2">
@@ -903,21 +932,25 @@
         <v>9.2592592592592595</v>
       </c>
       <c r="M21" s="2">
+        <f t="shared" si="3"/>
+        <v>6.9930069930069925</v>
+      </c>
+      <c r="N21" s="2">
         <f t="shared" si="6"/>
         <v>5.3191489361702127</v>
       </c>
-      <c r="N21" s="2">
+      <c r="O21" s="2">
         <f t="shared" si="6"/>
         <v>2.2988505747126435</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" t="str">
         <f t="shared" si="2"/>
         <v>AWS US W2</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ref="C22:N22" si="7">100/C11</f>
+        <f t="shared" ref="C22:O22" si="7">100/C11</f>
         <v>4</v>
       </c>
       <c r="D22" s="2">
@@ -938,11 +971,12 @@
         <f t="shared" si="7"/>
         <v>13.513513513513512</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="2"/>
+      <c r="N22" s="2">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="N22" s="2">
+      <c r="O22" s="2">
         <f t="shared" si="7"/>
         <v>4.6082949308755765</v>
       </c>
